--- a/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
+++ b/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SearchResultRows" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">My Portfolio Website</t>
   </si>
   <si>
-    <t xml:space="preserve">Portfolio Website Made with MVC.Net Core, Libre Office Calc, ClosedXML and Canva.</t>
+    <t xml:space="preserve">My portfolio website Made with MVC.Net Core (C#,CSHTML,Bootstrap), Libre Office Calc, ClosedXML and Canva.</t>
   </si>
   <si>
     <t xml:space="preserve">Programming</t>
@@ -76,9 +76,6 @@
     <t xml:space="preserve">IsCoverImage</t>
   </si>
   <si>
-    <t xml:space="preserve">Tags</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alt</t>
   </si>
   <si>
@@ -127,7 +124,7 @@
     <t xml:space="preserve">Tools Used</t>
   </si>
   <si>
-    <t xml:space="preserve">MVC.net Core, Canva, Libre Office Calc, Github, ClosedXML,GITHUB.</t>
+    <t xml:space="preserve">MVC.net Core, Canva, Libre Office Calc, Github, ClosedXML,Github.</t>
   </si>
   <si>
     <t xml:space="preserve">What’s in store in future?</t>
@@ -145,10 +142,13 @@
     <t xml:space="preserve">I Created the shape of the logo in 3D using Blender. Then I flattened a render in GIMP using the fuzzy select tool and Bucket Fill Tool. Once done I added text using the typeface named Poppins that is under the SIL Open Font License, Lastly I picked a background colour using a colour contrast checker to help ensure maximum accessibility.</t>
   </si>
   <si>
-    <t xml:space="preserve">Portfoilio Website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To create my portfolio Website I used the following: MVC.net Core, Canva, Libre Office Calc, and GitHub</t>
+    <t xml:space="preserve">To create my portfolio Website I used the following: MVC.net Core, Canva, Libre Office Calc, and Github.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperLink-Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.co.uk</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t xml:space="preserve">The Lewis Matthew Whittard Software Development Logo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC.Net Core,Canva,Libre Office Calc,Lewis Whittard,Lewis Matthew Whittard,Github,C#,Bootstrap,CSHTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Portfolio Make  with MVC.Net Core</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -248,6 +254,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -303,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,6 +363,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -436,13 +453,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="E1:E2 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="99.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.68"/>
@@ -532,13 +549,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.05"/>
@@ -562,26 +579,23 @@
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>21</v>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,13 +623,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="E1:E2 C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
@@ -627,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
@@ -658,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>6</v>
@@ -742,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>8</v>
@@ -826,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9" t="n">
         <v>0</v>
@@ -840,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,10 +868,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,16 +879,33 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" display="https://www.google.co.uk"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -890,30 +921,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="E1:E2 D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="125.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>24</v>
+      <c r="D1" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,6 +1028,48 @@
         <v>47</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>48</v>
       </c>
     </row>

--- a/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
+++ b/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SearchResultRows" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -52,13 +52,13 @@
     <t xml:space="preserve">Lewis Matthew Whittard Software Development Logo</t>
   </si>
   <si>
-    <t xml:space="preserve">Created using a mix of Blender and GIMP.</t>
+    <t xml:space="preserve">This Logo was created using a mix of Blender and GIMP.</t>
   </si>
   <si>
     <t xml:space="preserve">TwoDAssets</t>
   </si>
   <si>
-    <t xml:space="preserve">My Portfolio Website</t>
+    <t xml:space="preserve">My Portfolio – Website Development</t>
   </si>
   <si>
     <t xml:space="preserve">My portfolio website Made with MVC.Net Core (C#,CSHTML,Bootstrap), Libre Office Calc, ClosedXML and Canva.</t>
@@ -139,16 +139,16 @@
     <t xml:space="preserve">Image-Center</t>
   </si>
   <si>
-    <t xml:space="preserve">I Created the shape of the logo in 3D using Blender. Then I flattened a render in GIMP using the fuzzy select tool and Bucket Fill Tool. Once done I added text using the typeface named Poppins that is under the SIL Open Font License, Lastly I picked a background colour using a colour contrast checker to help ensure maximum accessibility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To create my portfolio Website I used the following: MVC.net Core, Canva, Libre Office Calc, and Github.</t>
+    <t xml:space="preserve">I created the shape of the logo in 3D using Blender. Then I flattened a render in GIMP using the fuzzy select tool and bucket fill tool. Once done, I added text using the typeface named Poppins that is under the SIL Open Font License. Finally, I picked a background colour using a colour contrast checker to help ensure maximum accessibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create my portfolio Website I used the following tools: MVC.net Core, Canva, Libre Office Calc, and Github.</t>
   </si>
   <si>
     <t xml:space="preserve">HyperLink-Center</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.google.co.uk</t>
+    <t xml:space="preserve">https://github.com/LewisWhittard/Lewis-Whittard-Portfolio-Website</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -160,28 +160,25 @@
     <t xml:space="preserve">keywords</t>
   </si>
   <si>
-    <t xml:space="preserve">MVC.Net Core,Portfolio,Games,Blogs,Programming,Software Development,Dev,3D Models,2D Models,LMW,Lewis Matthew Whittard,Lewis Whittard</t>
+    <t xml:space="preserve">MVC.Net Core,Portfolio,Games,Blogs,Programming,Software Development,Dev,3D Models,2D Models</t>
   </si>
   <si>
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis Whittard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis Matthew Whittard,Logo,Logo Design,2D Assets,Lewis Whittard,Blender,GIMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lewis Matthew Whittard Software Development Logo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC.Net Core,Canva,Libre Office Calc,Lewis Whittard,Lewis Matthew Whittard,Github,C#,Bootstrap,CSHTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Portfolio Make  with MVC.Net Core</t>
+    <t xml:space="preserve">This blog post explains why I have built my portfolio website to display my sides and out of work projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo,Logo Design,2D Assets,Blender,GIMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This page showcases the Logo I use for my portfolio and side projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC.Net Core,Canva,Libre Office Calc,Github,C#,Bootstrap,CSHTML,Software Development, Website Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This page showcases the portfolio website and links to the github code.</t>
   </si>
 </sst>
 </file>
@@ -337,6 +334,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,10 +351,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,10 +450,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="E1:E2 C5"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="99.15"/>
@@ -516,14 +513,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -551,11 +548,11 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.05"/>
@@ -590,7 +587,7 @@
       <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -599,13 +596,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -625,11 +622,11 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="E1:E2 C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
@@ -660,7 +657,7 @@
       <c r="C2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -674,7 +671,7 @@
       <c r="C3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -688,7 +685,7 @@
       <c r="C4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -702,7 +699,7 @@
       <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -716,7 +713,7 @@
       <c r="C6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -730,7 +727,7 @@
       <c r="C7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -744,7 +741,7 @@
       <c r="C8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -758,7 +755,7 @@
       <c r="C9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -772,7 +769,7 @@
       <c r="C10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -786,7 +783,7 @@
       <c r="C11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -800,7 +797,7 @@
       <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -814,7 +811,7 @@
       <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -842,7 +839,7 @@
       <c r="C15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -904,7 +901,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" display="https://www.google.co.uk"/>
+    <hyperlink ref="D19" r:id="rId1" display="https://github.com/LewisWhittard/Lewis-Whittard-Portfolio-Website"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -921,16 +918,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="E1:E2 D8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="125.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="139.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,106 +968,64 @@
       <c r="C3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="D7" s="5" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
+++ b/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SearchResultRows" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -67,6 +67,15 @@
     <t xml:space="preserve">Programming</t>
   </si>
   <si>
+    <t xml:space="preserve">UI Test Automation Portfolio Piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Test Automation portfolio piece, I used the following tools: C#, Selenium, NUnit,  Libre Office Impress and Microsoft Video Editor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -88,6 +97,18 @@
     <t xml:space="preserve">Lewis Matthew Whittard Software Development</t>
   </si>
   <si>
+    <t xml:space="preserve">SeleniumPortfolioPiece.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium Test Automation Frame Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestIconSquare.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">SearchResultID</t>
   </si>
   <si>
@@ -151,6 +172,15 @@
     <t xml:space="preserve">https://github.com/LewisWhittard/Lewis-Whittard-Portfolio-Website</t>
   </si>
   <si>
+    <t xml:space="preserve">To create my UI Test Automation portfolio piece, I used the following tools: C#, Selenium, NUnit,  Libre Office Impress and Microsoft Video Editor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/LewisWhittard/LMWSelenium</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -179,6 +209,12 @@
   </si>
   <si>
     <t xml:space="preserve">This page showcases the portfolio website and links to the github code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C#,Selenium,NUnit,Test Automation,UI Testing,Testing,DOTNET Core,Chrome,FireFox,Edge,Safari,Windows,Mac OS,Test Automation Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Page Showcases My UI Test Automation Portfolio Piece.</t>
   </si>
 </sst>
 </file>
@@ -189,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -245,6 +281,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Poppins"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -313,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,10 +385,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,11 +409,11 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,7 +487,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF212529"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -447,13 +498,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="99.15"/>
@@ -528,6 +579,23 @@
       </c>
       <c r="E4" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -549,10 +617,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.05"/>
@@ -565,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,27 +650,57 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="7"/>
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="7"/>
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -620,13 +718,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="A2:A9 A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
@@ -638,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,9 +753,9 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -669,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
@@ -753,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,9 +921,9 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -837,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -851,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,9 +963,9 @@
         <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -879,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,10 +991,66 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -918,30 +1072,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="139.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>23</v>
+      <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,66 +1120,94 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
+++ b/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SearchResultRows" sheetId="1" state="visible" r:id="rId2"/>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">https://github.com/LewisWhittard/Lewis-Whittard-Portfolio-Website</t>
   </si>
   <si>
-    <t xml:space="preserve">To create my UI Test Automation portfolio piece, I used the following tools: C#, Selenium, NUnit,  Libre Office Impress and Microsoft Video Editor.</t>
+    <t xml:space="preserve">To create my UI test automation portfolio piece, I used the following tools: C#, Selenium, NUnit,  Libre Office Impress and Microsoft Video Editor.</t>
   </si>
   <si>
     <t xml:space="preserve">Video</t>
@@ -501,10 +501,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A2:A9"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="99.15"/>
@@ -617,10 +617,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A9"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.05"/>
@@ -720,11 +720,11 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="A2:A9 A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
@@ -1074,11 +1074,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="139.21"/>

--- a/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
+++ b/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SearchResultRows" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -76,6 +76,12 @@
     <t xml:space="preserve">Testing</t>
   </si>
   <si>
+    <t xml:space="preserve">Cogetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A substitution cipher written in Python 3.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -109,6 +115,18 @@
     <t xml:space="preserve">TestIconSquare.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Cogetta Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CogettaPlain.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogetta Portfolio Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CogettaPortfolioVideo.mp4</t>
+  </si>
+  <si>
     <t xml:space="preserve">SearchResultID</t>
   </si>
   <si>
@@ -179,6 +197,42 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/LewisWhittard/LMWSelenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Cogetta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogetta is a substitution cipher written in python 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where can I download Cogetta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/LewisWhittard/Cogetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What tools did I use to develop Cogetta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3-Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python 3, Thonny IDE, Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blender, GIMP 2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libre Office Draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libre Office Impress, Microsoft Video Editor</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -498,13 +552,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="99.15"/>
@@ -596,6 +650,23 @@
       </c>
       <c r="E5" s="0" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -614,14 +685,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.77"/>
@@ -633,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,17 +722,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,14 +743,14 @@
         <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,21 +758,54 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="8"/>
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -718,13 +823,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
@@ -736,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -753,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -767,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
@@ -851,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
@@ -921,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>8</v>
@@ -935,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -949,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>11</v>
@@ -977,10 +1082,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,10 +1096,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>14</v>
@@ -1019,10 +1124,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
@@ -1047,15 +1152,226 @@
         <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" display="https://github.com/LewisWhittard/Lewis-Whittard-Portfolio-Website"/>
+    <hyperlink ref="D29" r:id="rId2" display="https://github.com/LewisWhittard/Cogetta"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1078,7 +1394,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="139.21"/>
@@ -1086,16 +1402,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,10 +1478,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,10 +1492,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,10 +1520,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
+++ b/LMWDev/Spreadsheet/PortfolioSiteDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SearchResultRows" sheetId="1" state="visible" r:id="rId2"/>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Libre Office Draw</t>
   </si>
   <si>
-    <t xml:space="preserve">Libre Office Impress, Microsoft Video Editor</t>
+    <t xml:space="preserve">Libre Office Impress, Microsoft Video Editor, OBS Studio</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -554,11 +554,11 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="99.15"/>
@@ -691,7 +691,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.52"/>
@@ -825,11 +825,11 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
@@ -1394,7 +1394,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="139.21"/>
